--- a/DJM01N.xlsx
+++ b/DJM01N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="439">
   <si>
     <t/>
   </si>
@@ -409,201 +409,213 @@
     <t>DJI SAM SOE TIN 12S</t>
   </si>
   <si>
+    <t>10010090</t>
+  </si>
+  <si>
+    <t>SAMPOERNA MLD 12/MRH</t>
+  </si>
+  <si>
+    <t>10010091</t>
+  </si>
+  <si>
+    <t>SAMPOERNA MILD 16'S</t>
+  </si>
+  <si>
+    <t>20135439</t>
+  </si>
+  <si>
+    <t>SAMPOERNA 35TH ED16S</t>
+  </si>
+  <si>
+    <t>20131370</t>
+  </si>
+  <si>
+    <t>SAMPOERNA ROYAL 16'S</t>
+  </si>
+  <si>
+    <t>20079512</t>
+  </si>
+  <si>
+    <t>SMPOERNA MNTHL.BR 16</t>
+  </si>
+  <si>
+    <t>20095217</t>
+  </si>
+  <si>
+    <t>SMPOERNA TRPCAL 16'S</t>
+  </si>
+  <si>
+    <t>20064088</t>
+  </si>
+  <si>
+    <t>SMPOERNA AVOLTN 20'S</t>
+  </si>
+  <si>
+    <t>20064089</t>
+  </si>
+  <si>
+    <t>SMPOERNA AVLT MNT 20</t>
+  </si>
+  <si>
+    <t>20136036</t>
+  </si>
+  <si>
+    <t>SMPOERN AVL TW/BRZ20</t>
+  </si>
+  <si>
+    <t>20138598</t>
+  </si>
+  <si>
+    <t>SMPOERN AVL RY.BRS20</t>
+  </si>
+  <si>
+    <t>20138112</t>
+  </si>
+  <si>
+    <t>MRLBORO RED TITA.20</t>
+  </si>
+  <si>
+    <t>20138113</t>
+  </si>
+  <si>
+    <t>MRLBORO GOLD TITA.20</t>
+  </si>
+  <si>
+    <t>20033460</t>
+  </si>
+  <si>
+    <t>DJARUM COKLT EXTR12S</t>
+  </si>
+  <si>
+    <t>10010083</t>
+  </si>
+  <si>
+    <t>DJARUM KRT CKT12/PCS</t>
+  </si>
+  <si>
+    <t>20135180</t>
+  </si>
+  <si>
+    <t>DJARUM76 FILT.NNS12S</t>
+  </si>
+  <si>
+    <t>20136122</t>
+  </si>
+  <si>
+    <t>DJRM CKLT EXT MOC 12</t>
+  </si>
+  <si>
+    <t>20130634</t>
+  </si>
+  <si>
+    <t>DJARUM 76 MANGGA 12S</t>
+  </si>
+  <si>
+    <t>20138087</t>
+  </si>
+  <si>
+    <t>DJARUM CKLT ELITE 12</t>
+  </si>
+  <si>
+    <t>20138754</t>
+  </si>
+  <si>
+    <t>DJARUM76 FILT.APL12S</t>
+  </si>
+  <si>
+    <t>20139003</t>
+  </si>
+  <si>
+    <t>DJARUM76 MGA RYL12'S</t>
+  </si>
+  <si>
+    <t>20084820</t>
+  </si>
+  <si>
+    <t>FORTE ORGL BKS 20'S</t>
+  </si>
+  <si>
+    <t>20084821</t>
+  </si>
+  <si>
+    <t>FORTE MNTHL BKS 20'S</t>
+  </si>
+  <si>
+    <t>20132551</t>
+  </si>
+  <si>
+    <t>FORTE VANILA BKS 20S</t>
+  </si>
+  <si>
+    <t>20132549</t>
+  </si>
+  <si>
+    <t>FORTE MANGO BKS 20'S</t>
+  </si>
+  <si>
+    <t>10014528</t>
+  </si>
+  <si>
+    <t>DJARUM BLACK FILTR16</t>
+  </si>
+  <si>
+    <t>10035030</t>
+  </si>
+  <si>
+    <t>DJRM BLACK CPCINO 16</t>
+  </si>
+  <si>
+    <t>20131992</t>
+  </si>
+  <si>
+    <t>DJARUM MILD F.COLA16</t>
+  </si>
+  <si>
+    <t>20046279</t>
+  </si>
+  <si>
+    <t>DJARUM SPR MILD 20'S</t>
+  </si>
+  <si>
+    <t>20075616</t>
+  </si>
+  <si>
+    <t>DJARUM MILD BLCK 12S</t>
+  </si>
+  <si>
+    <t>10010087</t>
+  </si>
+  <si>
+    <t>MR.BROWN COFFEE 12'S</t>
+  </si>
+  <si>
+    <t>20136123</t>
+  </si>
+  <si>
+    <t>DJARUM ESPRSO GLD12S</t>
+  </si>
+  <si>
+    <t>20132548</t>
+  </si>
+  <si>
+    <t>DJARUM ESPRESSO 12'S</t>
+  </si>
+  <si>
+    <t>20140378</t>
+  </si>
+  <si>
+    <t>DJARUM SUPER WRAP12S</t>
+  </si>
+  <si>
+    <t>20139142</t>
+  </si>
+  <si>
+    <t>DJRM CGRILLOS FC 12S</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>10010090</t>
-  </si>
-  <si>
-    <t>SAMPOERNA MLD 12/MRH</t>
-  </si>
-  <si>
-    <t>10010091</t>
-  </si>
-  <si>
-    <t>SAMPOERNA MILD 16'S</t>
-  </si>
-  <si>
-    <t>20135439</t>
-  </si>
-  <si>
-    <t>SAMPOERNA 35TH ED16S</t>
-  </si>
-  <si>
-    <t>20131370</t>
-  </si>
-  <si>
-    <t>SAMPOERNA ROYAL 16'S</t>
-  </si>
-  <si>
-    <t>20079512</t>
-  </si>
-  <si>
-    <t>SMPOERNA MNTHL.BR 16</t>
-  </si>
-  <si>
-    <t>20095217</t>
-  </si>
-  <si>
-    <t>SMPOERNA TRPCAL 16'S</t>
-  </si>
-  <si>
-    <t>20064088</t>
-  </si>
-  <si>
-    <t>SMPOERNA AVOLTN 20'S</t>
-  </si>
-  <si>
-    <t>20064089</t>
-  </si>
-  <si>
-    <t>SMPOERNA AVLT MNT 20</t>
-  </si>
-  <si>
-    <t>20136036</t>
-  </si>
-  <si>
-    <t>SMPOERN AVL TW/BRZ20</t>
-  </si>
-  <si>
-    <t>20138598</t>
-  </si>
-  <si>
-    <t>SMPOERN AVL RY.BRS20</t>
-  </si>
-  <si>
-    <t>20138112</t>
-  </si>
-  <si>
-    <t>MRLBORO RED TITA.20</t>
-  </si>
-  <si>
-    <t>20138113</t>
-  </si>
-  <si>
-    <t>MRLBORO GOLD TITA.20</t>
-  </si>
-  <si>
-    <t>20033460</t>
-  </si>
-  <si>
-    <t>DJARUM COKLT EXTR12S</t>
-  </si>
-  <si>
-    <t>10010083</t>
-  </si>
-  <si>
-    <t>DJARUM KRT CKT12/PCS</t>
-  </si>
-  <si>
-    <t>20135180</t>
-  </si>
-  <si>
-    <t>DJARUM76 FILT.NNS12S</t>
-  </si>
-  <si>
-    <t>20136122</t>
-  </si>
-  <si>
-    <t>DJRM CKLT EXT MOC 12</t>
-  </si>
-  <si>
-    <t>20130634</t>
-  </si>
-  <si>
-    <t>DJARUM 76 MANGGA 12S</t>
-  </si>
-  <si>
-    <t>20138087</t>
-  </si>
-  <si>
-    <t>DJARUM CKLT ELITE 12</t>
-  </si>
-  <si>
-    <t>20138754</t>
-  </si>
-  <si>
-    <t>DJARUM76 FILT.APL12S</t>
-  </si>
-  <si>
-    <t>20139003</t>
-  </si>
-  <si>
-    <t>DJARUM76 MGA RYL12'S</t>
-  </si>
-  <si>
-    <t>20084820</t>
-  </si>
-  <si>
-    <t>FORTE ORGL BKS 20'S</t>
-  </si>
-  <si>
-    <t>20084821</t>
-  </si>
-  <si>
-    <t>FORTE MNTHL BKS 20'S</t>
-  </si>
-  <si>
-    <t>20132551</t>
-  </si>
-  <si>
-    <t>FORTE VANILA BKS 20S</t>
-  </si>
-  <si>
-    <t>20132549</t>
-  </si>
-  <si>
-    <t>FORTE MANGO BKS 20'S</t>
-  </si>
-  <si>
-    <t>10014528</t>
-  </si>
-  <si>
-    <t>DJARUM BLACK FILTR16</t>
-  </si>
-  <si>
-    <t>10035030</t>
-  </si>
-  <si>
-    <t>DJRM BLACK CPCINO 16</t>
-  </si>
-  <si>
-    <t>20131992</t>
-  </si>
-  <si>
-    <t>DJARUM MILD F.COLA16</t>
-  </si>
-  <si>
-    <t>20046279</t>
-  </si>
-  <si>
-    <t>DJARUM SPR MILD 20'S</t>
-  </si>
-  <si>
-    <t>20075616</t>
-  </si>
-  <si>
-    <t>DJARUM MILD BLCK 12S</t>
-  </si>
-  <si>
-    <t>10010087</t>
-  </si>
-  <si>
-    <t>MR.BROWN COFFEE 12'S</t>
-  </si>
-  <si>
-    <t>20136123</t>
-  </si>
-  <si>
-    <t>DJARUM ESPRSO GLD12S</t>
-  </si>
-  <si>
-    <t>20132548</t>
-  </si>
-  <si>
-    <t>DJARUM ESPRESSO 12'S</t>
-  </si>
-  <si>
     <t>10010081</t>
   </si>
   <si>
@@ -760,6 +772,12 @@
     <t>TEREA BERMIN PRL 20S</t>
   </si>
   <si>
+    <t>20140875</t>
+  </si>
+  <si>
+    <t>TEREA RIVIERA PR 20S</t>
+  </si>
+  <si>
     <t>20128089</t>
   </si>
   <si>
@@ -796,6 +814,18 @@
     <t>TEREA PERINT PRL 20S</t>
   </si>
   <si>
+    <t>20140878</t>
+  </si>
+  <si>
+    <t>BLENDS GOLD 20'S</t>
+  </si>
+  <si>
+    <t>20140879</t>
+  </si>
+  <si>
+    <t>BLENDS TROPICAL 20'S</t>
+  </si>
+  <si>
     <t>20136323</t>
   </si>
   <si>
@@ -1250,18 +1280,6 @@
   </si>
   <si>
     <t>GG SIGNT MILD 16'S</t>
-  </si>
-  <si>
-    <t>20136765</t>
-  </si>
-  <si>
-    <t>GG  SIGNATURE 12S</t>
-  </si>
-  <si>
-    <t>20136764</t>
-  </si>
-  <si>
-    <t>GG  INTERNTNL 12S</t>
   </si>
   <si>
     <t>10010078</t>
@@ -1702,7 +1720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F210"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2846,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2854,10 +2872,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
@@ -2874,10 +2892,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
@@ -2894,10 +2912,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
@@ -2914,10 +2932,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -2934,10 +2952,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
@@ -2954,10 +2972,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -2974,10 +2992,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
@@ -2994,10 +3012,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
@@ -3014,10 +3032,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
@@ -3034,10 +3052,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
@@ -3054,10 +3072,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -3074,10 +3092,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
@@ -3094,10 +3112,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
@@ -3114,10 +3132,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
@@ -3134,10 +3152,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
@@ -3154,10 +3172,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
@@ -3174,10 +3192,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
@@ -3194,10 +3212,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -3214,10 +3232,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
@@ -3234,10 +3252,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
@@ -3254,10 +3272,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
@@ -3274,10 +3292,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
@@ -3294,10 +3312,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -3314,10 +3332,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
@@ -3334,10 +3352,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -3354,10 +3372,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -3374,10 +3392,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -3394,10 +3412,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
@@ -3414,10 +3432,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -3434,10 +3452,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -3454,10 +3472,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
@@ -3474,10 +3492,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
@@ -3494,19 +3512,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3514,19 +3532,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -3546,7 +3564,7 @@
         <v>26</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -3566,7 +3584,7 @@
         <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3586,7 +3604,7 @@
         <v>26</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3606,7 +3624,7 @@
         <v>26</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3626,10 +3644,10 @@
         <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3646,7 +3664,7 @@
         <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3666,10 +3684,10 @@
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,7 +3704,7 @@
         <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3703,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3723,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3746,7 +3764,7 @@
         <v>29</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3766,7 +3784,7 @@
         <v>29</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3786,7 +3804,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3806,10 +3824,10 @@
         <v>29</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3826,7 +3844,7 @@
         <v>29</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3843,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3863,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3946,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3966,7 +3984,7 @@
         <v>32</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
@@ -4009,7 +4027,7 @@
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4026,7 +4044,7 @@
         <v>32</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4046,10 +4064,10 @@
         <v>32</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4066,7 +4084,7 @@
         <v>32</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4089,7 +4107,7 @@
         <v>11</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,7 +4144,7 @@
         <v>32</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
@@ -4146,10 +4164,10 @@
         <v>32</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4166,10 +4184,10 @@
         <v>32</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,7 +4204,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>5</v>
@@ -4206,7 +4224,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
@@ -4226,10 +4244,10 @@
         <v>32</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4246,7 +4264,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
@@ -4266,7 +4284,7 @@
         <v>32</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>5</v>
@@ -4286,7 +4304,7 @@
         <v>32</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>5</v>
@@ -4306,10 +4324,10 @@
         <v>32</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4326,7 +4344,7 @@
         <v>32</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>89</v>
@@ -4349,7 +4367,7 @@
         <v>20</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4409,7 +4427,7 @@
         <v>20</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4429,7 +4447,7 @@
         <v>20</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,7 +4467,7 @@
         <v>20</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,10 +4544,10 @@
         <v>32</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,10 +4564,10 @@
         <v>32</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4566,10 +4584,10 @@
         <v>32</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4586,10 +4604,10 @@
         <v>32</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,7 +4624,7 @@
         <v>32</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -4629,7 +4647,7 @@
         <v>23</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4649,7 +4667,7 @@
         <v>23</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4669,7 +4687,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4689,7 +4707,7 @@
         <v>23</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4706,7 +4724,7 @@
         <v>32</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>5</v>
@@ -4723,10 +4741,10 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>5</v>
@@ -4743,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4763,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4783,10 +4801,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -4803,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -4826,7 +4844,7 @@
         <v>35</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
@@ -4846,7 +4864,7 @@
         <v>35</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>5</v>
@@ -4866,7 +4884,7 @@
         <v>35</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
@@ -4886,7 +4904,7 @@
         <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -4906,7 +4924,7 @@
         <v>35</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -4926,7 +4944,7 @@
         <v>35</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4946,10 +4964,10 @@
         <v>35</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,7 +4984,7 @@
         <v>35</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -4983,10 +5001,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
@@ -5003,10 +5021,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
@@ -5023,10 +5041,10 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>5</v>
@@ -5043,13 +5061,13 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F167" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5063,10 +5081,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
@@ -5086,7 +5104,7 @@
         <v>38</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5106,7 +5124,7 @@
         <v>38</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -5126,7 +5144,7 @@
         <v>38</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5146,7 +5164,7 @@
         <v>38</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5166,7 +5184,7 @@
         <v>38</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5186,7 +5204,7 @@
         <v>38</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5206,7 +5224,7 @@
         <v>38</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5223,10 +5241,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>5</v>
@@ -5243,10 +5261,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -5263,10 +5281,10 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
@@ -5283,10 +5301,10 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5303,10 +5321,10 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5326,7 +5344,7 @@
         <v>41</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5346,7 +5364,7 @@
         <v>41</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -5366,7 +5384,7 @@
         <v>41</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -5386,7 +5404,7 @@
         <v>41</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
@@ -5406,7 +5424,7 @@
         <v>41</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>5</v>
@@ -5426,7 +5444,7 @@
         <v>41</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
@@ -5446,7 +5464,7 @@
         <v>41</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
@@ -5466,7 +5484,7 @@
         <v>41</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>5</v>
@@ -5486,10 +5504,10 @@
         <v>41</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5506,10 +5524,10 @@
         <v>41</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5523,13 +5541,13 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5543,13 +5561,13 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5563,13 +5581,13 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5583,13 +5601,13 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F194" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5603,13 +5621,13 @@
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5626,7 +5644,7 @@
         <v>44</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>72</v>
@@ -5646,7 +5664,7 @@
         <v>44</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>72</v>
@@ -5666,7 +5684,7 @@
         <v>44</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>72</v>
@@ -5686,7 +5704,7 @@
         <v>44</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>72</v>
@@ -5703,10 +5721,10 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>72</v>
@@ -5723,10 +5741,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>72</v>
@@ -5743,10 +5761,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>72</v>
@@ -5763,10 +5781,10 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>72</v>
@@ -5783,10 +5801,10 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>72</v>
@@ -5803,10 +5821,10 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>72</v>
@@ -5823,13 +5841,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5843,12 +5861,72 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>72</v>
       </c>
     </row>

--- a/DJM01N.xlsx
+++ b/DJM01N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="435">
   <si>
     <t/>
   </si>
@@ -748,12 +748,6 @@
     <t>TEREA OASIS PRL 20'S</t>
   </si>
   <si>
-    <t>20128087</t>
-  </si>
-  <si>
-    <t>TEREA PRPL WAVE 20S</t>
-  </si>
-  <si>
     <t>20132739</t>
   </si>
   <si>
@@ -800,12 +794,6 @@
   </si>
   <si>
     <t>TEREA BLACK RUBY20S</t>
-  </si>
-  <si>
-    <t>20138225</t>
-  </si>
-  <si>
-    <t>TEREA BLACK PURPLE20</t>
   </si>
   <si>
     <t>20139349</t>
@@ -1720,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F208"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -4047,7 +4035,7 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4067,7 +4055,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,7 +4072,7 @@
         <v>32</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4147,7 +4135,7 @@
         <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,10 +4152,10 @@
         <v>32</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,10 +4172,10 @@
         <v>32</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,7 +4212,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
@@ -4244,7 +4232,7 @@
         <v>32</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -4307,7 +4295,7 @@
         <v>17</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,7 +4312,7 @@
         <v>32</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -4344,10 +4332,10 @@
         <v>32</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4387,7 +4375,7 @@
         <v>20</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,7 +4395,7 @@
         <v>20</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4447,7 +4435,7 @@
         <v>20</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4467,7 +4455,7 @@
         <v>20</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,10 +4592,10 @@
         <v>32</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,10 +4612,10 @@
         <v>32</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,7 +4675,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4707,7 +4695,7 @@
         <v>23</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,7 +4772,7 @@
         <v>32</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4801,10 +4789,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -4821,10 +4809,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -4844,7 +4832,7 @@
         <v>35</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
@@ -4864,7 +4852,7 @@
         <v>35</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>5</v>
@@ -4884,7 +4872,7 @@
         <v>35</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
@@ -4904,7 +4892,7 @@
         <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -4924,7 +4912,7 @@
         <v>35</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -4944,7 +4932,7 @@
         <v>35</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4964,7 +4952,7 @@
         <v>35</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
@@ -4984,7 +4972,7 @@
         <v>35</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -5004,7 +4992,7 @@
         <v>35</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
@@ -5024,10 +5012,10 @@
         <v>35</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,7 +5032,7 @@
         <v>35</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>5</v>
@@ -5061,13 +5049,13 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5081,10 +5069,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
@@ -5104,7 +5092,7 @@
         <v>38</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5124,7 +5112,7 @@
         <v>38</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -5144,7 +5132,7 @@
         <v>38</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5164,7 +5152,7 @@
         <v>38</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5184,7 +5172,7 @@
         <v>38</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5204,7 +5192,7 @@
         <v>38</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5224,7 +5212,7 @@
         <v>38</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5244,7 +5232,7 @@
         <v>38</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>5</v>
@@ -5264,7 +5252,7 @@
         <v>38</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -5284,7 +5272,7 @@
         <v>38</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
@@ -5301,10 +5289,10 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5321,10 +5309,10 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5344,7 +5332,7 @@
         <v>41</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5364,7 +5352,7 @@
         <v>41</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -5384,7 +5372,7 @@
         <v>41</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -5404,7 +5392,7 @@
         <v>41</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
@@ -5424,7 +5412,7 @@
         <v>41</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>5</v>
@@ -5444,7 +5432,7 @@
         <v>41</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
@@ -5464,7 +5452,7 @@
         <v>41</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
@@ -5484,7 +5472,7 @@
         <v>41</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>5</v>
@@ -5504,7 +5492,7 @@
         <v>41</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
@@ -5524,7 +5512,7 @@
         <v>41</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>5</v>
@@ -5544,7 +5532,7 @@
         <v>41</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>5</v>
@@ -5564,10 +5552,10 @@
         <v>41</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,10 +5572,10 @@
         <v>41</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5601,13 +5589,13 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5621,13 +5609,13 @@
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,7 +5632,7 @@
         <v>44</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>72</v>
@@ -5664,7 +5652,7 @@
         <v>44</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>72</v>
@@ -5684,7 +5672,7 @@
         <v>44</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>72</v>
@@ -5704,7 +5692,7 @@
         <v>44</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>72</v>
@@ -5724,7 +5712,7 @@
         <v>44</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>72</v>
@@ -5741,10 +5729,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>72</v>
@@ -5761,10 +5749,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>72</v>
@@ -5784,7 +5772,7 @@
         <v>200</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>72</v>
@@ -5804,7 +5792,7 @@
         <v>200</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>72</v>
@@ -5824,7 +5812,7 @@
         <v>200</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>72</v>
@@ -5844,7 +5832,7 @@
         <v>200</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>72</v>
@@ -5864,10 +5852,10 @@
         <v>200</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5884,49 +5872,9 @@
         <v>200</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F210" s="1" t="s">
         <v>72</v>
       </c>
     </row>

--- a/DJM01N.xlsx
+++ b/DJM01N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="433">
   <si>
     <t/>
   </si>
@@ -541,12 +541,6 @@
     <t>FORTE MNTHL BKS 20'S</t>
   </si>
   <si>
-    <t>20132551</t>
-  </si>
-  <si>
-    <t>FORTE VANILA BKS 20S</t>
-  </si>
-  <si>
     <t>20132549</t>
   </si>
   <si>
@@ -613,619 +607,619 @@
     <t>DJRM CGRILLOS FC 12S</t>
   </si>
   <si>
+    <t>10010081</t>
+  </si>
+  <si>
+    <t>DJARUM SUPER FILTR12</t>
+  </si>
+  <si>
+    <t>10010082</t>
+  </si>
+  <si>
+    <t>DJARUM SUPER FILTR16</t>
+  </si>
+  <si>
+    <t>20126488</t>
+  </si>
+  <si>
+    <t>DJARUM KING FLTER 12</t>
+  </si>
+  <si>
+    <t>20075632</t>
+  </si>
+  <si>
+    <t>LA BOLD BKS 12'S</t>
+  </si>
+  <si>
+    <t>20062125</t>
+  </si>
+  <si>
+    <t>LA BOLD BKS 20'S</t>
+  </si>
+  <si>
+    <t>20134688</t>
+  </si>
+  <si>
+    <t>LA BOLD BKS NEW 16'S</t>
+  </si>
+  <si>
+    <t>20124037</t>
+  </si>
+  <si>
+    <t>LA ICE FL PR/BST 16S</t>
+  </si>
+  <si>
+    <t>20135993</t>
+  </si>
+  <si>
+    <t>LA ICE MANGO BST 16S</t>
+  </si>
+  <si>
+    <t>20048746</t>
+  </si>
+  <si>
+    <t>LA ICE 16'S BKS</t>
+  </si>
+  <si>
+    <t>10010084</t>
+  </si>
+  <si>
+    <t>LA FILTER LIGHT 16'S</t>
+  </si>
+  <si>
+    <t>20137797</t>
+  </si>
+  <si>
+    <t>DPLOMAT EVO MGO 16'S</t>
+  </si>
+  <si>
+    <t>20102167</t>
+  </si>
+  <si>
+    <t>DIPLOMAT EVO16'S</t>
+  </si>
+  <si>
+    <t>20101053</t>
+  </si>
+  <si>
+    <t>JAZY BOLD MILD 20'S</t>
+  </si>
+  <si>
+    <t>20136523</t>
+  </si>
+  <si>
+    <t>JAZY RK POPPIN16'S</t>
+  </si>
+  <si>
+    <t>20095233</t>
+  </si>
+  <si>
+    <t>IDM LGHT CRCKET SLID</t>
+  </si>
+  <si>
+    <t>20123763</t>
+  </si>
+  <si>
+    <t>IDM LGHT TOKAI MOTIF</t>
+  </si>
+  <si>
+    <t>20070579</t>
+  </si>
+  <si>
+    <t>IDM LGHT CRCKT ELKTR</t>
+  </si>
+  <si>
+    <t>20128084</t>
+  </si>
+  <si>
+    <t>TEREA BLUE 20'S</t>
+  </si>
+  <si>
+    <t>20128085</t>
+  </si>
+  <si>
+    <t>TEREA BLCK GRN 20'S</t>
+  </si>
+  <si>
+    <t>20128086</t>
+  </si>
+  <si>
+    <t>TEREA SIENNA 20'S</t>
+  </si>
+  <si>
+    <t>20135433</t>
+  </si>
+  <si>
+    <t>TEREA SUN PEARL 20'S</t>
+  </si>
+  <si>
+    <t>20135434</t>
+  </si>
+  <si>
+    <t>TEREA OASIS PRL 20'S</t>
+  </si>
+  <si>
+    <t>20132739</t>
+  </si>
+  <si>
+    <t>TEREA GOLDEN ED 20'S</t>
+  </si>
+  <si>
+    <t>20134380</t>
+  </si>
+  <si>
+    <t>TEREA MULINT ED 20'S</t>
+  </si>
+  <si>
+    <t>20139348</t>
+  </si>
+  <si>
+    <t>TEREA BERMIN PRL 20S</t>
+  </si>
+  <si>
+    <t>20140875</t>
+  </si>
+  <si>
+    <t>TEREA RIVIERA PR 20S</t>
+  </si>
+  <si>
+    <t>20128089</t>
+  </si>
+  <si>
+    <t>TEREA YUGEN 20'S</t>
+  </si>
+  <si>
+    <t>20134381</t>
+  </si>
+  <si>
+    <t>TEREA AUBURN ED 20'S</t>
+  </si>
+  <si>
+    <t>20134382</t>
+  </si>
+  <si>
+    <t>TEREA BERRNE ED 20'S</t>
+  </si>
+  <si>
+    <t>20138206</t>
+  </si>
+  <si>
+    <t>TEREA BLACK RUBY20S</t>
+  </si>
+  <si>
+    <t>20139349</t>
+  </si>
+  <si>
+    <t>TEREA PERINT PRL 20S</t>
+  </si>
+  <si>
+    <t>20140878</t>
+  </si>
+  <si>
+    <t>BLENDS GOLD 20'S</t>
+  </si>
+  <si>
+    <t>20140879</t>
+  </si>
+  <si>
+    <t>BLENDS TROPICAL 20'S</t>
+  </si>
+  <si>
+    <t>20136323</t>
+  </si>
+  <si>
+    <t>BLENDS WARM.EDT 20'S</t>
+  </si>
+  <si>
+    <t>20136324</t>
+  </si>
+  <si>
+    <t>BLENDS PRPL.EDT 20'S</t>
+  </si>
+  <si>
+    <t>20136325</t>
+  </si>
+  <si>
+    <t>BLENDS BLSM.EDT 20'S</t>
+  </si>
+  <si>
+    <t>20136326</t>
+  </si>
+  <si>
+    <t>BLENDS SMMR.EDT 20'S</t>
+  </si>
+  <si>
+    <t>20138346</t>
+  </si>
+  <si>
+    <t>BLENDS RICH.EDT 20'S</t>
+  </si>
+  <si>
+    <t>20135189</t>
+  </si>
+  <si>
+    <t>VEEV ONE1000 STRWBRY</t>
+  </si>
+  <si>
+    <t>20135190</t>
+  </si>
+  <si>
+    <t>VEEV ONE1000 RED.MLN</t>
+  </si>
+  <si>
+    <t>20135191</t>
+  </si>
+  <si>
+    <t>VEEV ONE1000 MANGO</t>
+  </si>
+  <si>
+    <t>20137965</t>
+  </si>
+  <si>
+    <t>VEEV ONE1000 S.APPLE</t>
+  </si>
+  <si>
+    <t>20137967</t>
+  </si>
+  <si>
+    <t>VEEV ONE1000 BLUEBRY</t>
+  </si>
+  <si>
+    <t>20137968</t>
+  </si>
+  <si>
+    <t>VEEV ONE1000 GRAPE</t>
+  </si>
+  <si>
+    <t>20138765</t>
+  </si>
+  <si>
+    <t>VEEV ONE1000 STRW CL</t>
+  </si>
+  <si>
+    <t>20139616</t>
+  </si>
+  <si>
+    <t>VEEV ONE 1000 CHERRY</t>
+  </si>
+  <si>
+    <t>20139759</t>
+  </si>
+  <si>
+    <t>VEEV ONE 500 MANGO</t>
+  </si>
+  <si>
+    <t>20139760</t>
+  </si>
+  <si>
+    <t>VEEV ONE 500 RED MLN</t>
+  </si>
+  <si>
+    <t>20139761</t>
+  </si>
+  <si>
+    <t>VEEV ONE 500 STRW CL</t>
+  </si>
+  <si>
+    <t>20140265</t>
+  </si>
+  <si>
+    <t>VEEV ONE 1000 LT.TEA</t>
+  </si>
+  <si>
+    <t>20140266</t>
+  </si>
+  <si>
+    <t>VEEV ONE 500 LM.TEA</t>
+  </si>
+  <si>
+    <t>20140267</t>
+  </si>
+  <si>
+    <t>VEEV ONE 1000 LM.TEA</t>
+  </si>
+  <si>
+    <t>20137962</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULTRA MNGO</t>
+  </si>
+  <si>
+    <t>20137963</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULTRA GRPE</t>
+  </si>
+  <si>
+    <t>20137964</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULT RED.MLN</t>
+  </si>
+  <si>
+    <t>20138345</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULT SOURPLE</t>
+  </si>
+  <si>
+    <t>20138659</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULTRA STRWB</t>
+  </si>
+  <si>
+    <t>20138763</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULTR STR CL</t>
+  </si>
+  <si>
+    <t>20138764</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULTR PDN CF</t>
+  </si>
+  <si>
+    <t>20139526</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULTRA RSPBR</t>
+  </si>
+  <si>
+    <t>20140252</t>
+  </si>
+  <si>
+    <t>VEEV NOW ULTRA LMN.T</t>
+  </si>
+  <si>
+    <t>20135188</t>
+  </si>
+  <si>
+    <t>VEEV DVCE KIT SP.GRY</t>
+  </si>
+  <si>
+    <t>20135716</t>
+  </si>
+  <si>
+    <t>CAMEL SENSO GOLD 20S</t>
+  </si>
+  <si>
+    <t>20117925</t>
+  </si>
+  <si>
+    <t>CAMEL MILD BLUE 16'S</t>
+  </si>
+  <si>
+    <t>20130840</t>
+  </si>
+  <si>
+    <t>CAMEL WHITE NEW 20'S</t>
+  </si>
+  <si>
+    <t>20046794</t>
+  </si>
+  <si>
+    <t>CAMEL WHITE 20'S</t>
+  </si>
+  <si>
+    <t>20115758</t>
+  </si>
+  <si>
+    <t>CAMEL YLOW NEW 20'S</t>
+  </si>
+  <si>
+    <t>20096502</t>
+  </si>
+  <si>
+    <t>CAMEL YELLOW 20'S</t>
+  </si>
+  <si>
+    <t>20060300</t>
+  </si>
+  <si>
+    <t>CAMEL ACT.P MINT 20S</t>
+  </si>
+  <si>
+    <t>20128470</t>
+  </si>
+  <si>
+    <t>CAMEL OPT PURPLE 16S</t>
+  </si>
+  <si>
+    <t>20106190</t>
+  </si>
+  <si>
+    <t>CAMEL OPT PURPLE 12S</t>
+  </si>
+  <si>
+    <t>20114049</t>
+  </si>
+  <si>
+    <t>CAMEL OPT YELLOW 12S</t>
+  </si>
+  <si>
+    <t>20133512</t>
+  </si>
+  <si>
+    <t>CAMEL ACTV MNTHL 20S</t>
+  </si>
+  <si>
+    <t>20138432</t>
+  </si>
+  <si>
+    <t>CAMEL ICE RED 16S</t>
+  </si>
+  <si>
+    <t>20137297</t>
+  </si>
+  <si>
+    <t>CAMEL  KRETEK12'S</t>
+  </si>
+  <si>
+    <t>20130571</t>
+  </si>
+  <si>
+    <t>WIN FILTER CLICK20'S</t>
+  </si>
+  <si>
+    <t>20119629</t>
+  </si>
+  <si>
+    <t>WIN FILTER 20'S</t>
+  </si>
+  <si>
+    <t>20136050</t>
+  </si>
+  <si>
+    <t>WIN KRETEK BERRY 12S</t>
+  </si>
+  <si>
+    <t>20136051</t>
+  </si>
+  <si>
+    <t>WIN KRT NANGKA 12'S</t>
+  </si>
+  <si>
+    <t>20135739</t>
+  </si>
+  <si>
+    <t>CLIMAX ICY BKS 20'S</t>
+  </si>
+  <si>
+    <t>20135737</t>
+  </si>
+  <si>
+    <t>CLIMAX MANGO BKS20'S</t>
+  </si>
+  <si>
+    <t>20135736</t>
+  </si>
+  <si>
+    <t>CLIMAX MIX BKS 20'S</t>
+  </si>
+  <si>
+    <t>20112661</t>
+  </si>
+  <si>
+    <t>ESSE PUNCH POP 16'S</t>
+  </si>
+  <si>
+    <t>20070447</t>
+  </si>
+  <si>
+    <t>ESSE BERRY POP 16'S</t>
+  </si>
+  <si>
+    <t>20114735</t>
+  </si>
+  <si>
+    <t>ESSE BERRY POP 12'S</t>
+  </si>
+  <si>
+    <t>20093678</t>
+  </si>
+  <si>
+    <t>ESSE BLUE CHNGE 20'S</t>
+  </si>
+  <si>
+    <t>20010960</t>
+  </si>
+  <si>
+    <t>ESSE FILTER BLUE 20S</t>
+  </si>
+  <si>
+    <t>20138128</t>
+  </si>
+  <si>
+    <t>JUARA  APEL 12S</t>
+  </si>
+  <si>
+    <t>20130786</t>
+  </si>
+  <si>
+    <t>JUARA  MNGGA 12S</t>
+  </si>
+  <si>
+    <t>20095302</t>
+  </si>
+  <si>
+    <t>JUARA  TEH 12S</t>
+  </si>
+  <si>
+    <t>20139245</t>
+  </si>
+  <si>
+    <t>JUARA KRT  BERRY 12S</t>
+  </si>
+  <si>
+    <t>20130785</t>
+  </si>
+  <si>
+    <t>JUARA  JAMBU12S</t>
+  </si>
+  <si>
+    <t>20108797</t>
+  </si>
+  <si>
+    <t>WIN BOLD 20'S</t>
+  </si>
+  <si>
+    <t>20085760</t>
+  </si>
+  <si>
+    <t>ESSE CHANGE GRP 20'S</t>
+  </si>
+  <si>
+    <t>20112781</t>
+  </si>
+  <si>
+    <t>ESSE CHNG JUICY 16'S</t>
+  </si>
+  <si>
+    <t>20094203</t>
+  </si>
+  <si>
+    <t>ESSE CHNG JUICY 20'S</t>
+  </si>
+  <si>
+    <t>20112785</t>
+  </si>
+  <si>
+    <t>ESSE CHNG APLMNT 16S</t>
+  </si>
+  <si>
+    <t>20055795</t>
+  </si>
+  <si>
+    <t>ESSE CHNG APLMNT 20S</t>
+  </si>
+  <si>
+    <t>20100795</t>
+  </si>
+  <si>
+    <t>ESSE CHNG DOUB 20'S</t>
+  </si>
+  <si>
+    <t>20126307</t>
+  </si>
+  <si>
+    <t>ESSE DOUBLE POP 16'S</t>
+  </si>
+  <si>
+    <t>20138581</t>
+  </si>
+  <si>
+    <t>ESSE/C CGR CACAO 20S</t>
+  </si>
+  <si>
+    <t>20138582</t>
+  </si>
+  <si>
+    <t>ESSE/C CGR PRPLE 20S</t>
+  </si>
+  <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>10010081</t>
-  </si>
-  <si>
-    <t>DJARUM SUPER FILTR12</t>
-  </si>
-  <si>
-    <t>10010082</t>
-  </si>
-  <si>
-    <t>DJARUM SUPER FILTR16</t>
-  </si>
-  <si>
-    <t>20126488</t>
-  </si>
-  <si>
-    <t>DJARUM KING FLTER 12</t>
-  </si>
-  <si>
-    <t>20075632</t>
-  </si>
-  <si>
-    <t>LA BOLD BKS 12'S</t>
-  </si>
-  <si>
-    <t>20062125</t>
-  </si>
-  <si>
-    <t>LA BOLD BKS 20'S</t>
-  </si>
-  <si>
-    <t>20134688</t>
-  </si>
-  <si>
-    <t>LA BOLD BKS NEW 16'S</t>
-  </si>
-  <si>
-    <t>20124037</t>
-  </si>
-  <si>
-    <t>LA ICE FL PR/BST 16S</t>
-  </si>
-  <si>
-    <t>20135993</t>
-  </si>
-  <si>
-    <t>LA ICE MANGO BST 16S</t>
-  </si>
-  <si>
-    <t>20048746</t>
-  </si>
-  <si>
-    <t>LA ICE 16'S BKS</t>
-  </si>
-  <si>
-    <t>10010084</t>
-  </si>
-  <si>
-    <t>LA FILTER LIGHT 16'S</t>
-  </si>
-  <si>
-    <t>20137797</t>
-  </si>
-  <si>
-    <t>DPLOMAT EVO MGO 16'S</t>
-  </si>
-  <si>
-    <t>20102167</t>
-  </si>
-  <si>
-    <t>DIPLOMAT EVO16'S</t>
-  </si>
-  <si>
-    <t>20101053</t>
-  </si>
-  <si>
-    <t>JAZY BOLD MILD 20'S</t>
-  </si>
-  <si>
-    <t>20136523</t>
-  </si>
-  <si>
-    <t>JAZY RK POPPIN16'S</t>
-  </si>
-  <si>
-    <t>20095233</t>
-  </si>
-  <si>
-    <t>IDM LGHT CRCKET SLID</t>
-  </si>
-  <si>
-    <t>20123763</t>
-  </si>
-  <si>
-    <t>IDM LGHT TOKAI MOTIF</t>
-  </si>
-  <si>
-    <t>20070579</t>
-  </si>
-  <si>
-    <t>IDM LGHT CRCKT ELKTR</t>
-  </si>
-  <si>
-    <t>20128084</t>
-  </si>
-  <si>
-    <t>TEREA BLUE 20'S</t>
-  </si>
-  <si>
-    <t>20128085</t>
-  </si>
-  <si>
-    <t>TEREA BLCK GRN 20'S</t>
-  </si>
-  <si>
-    <t>20128086</t>
-  </si>
-  <si>
-    <t>TEREA SIENNA 20'S</t>
-  </si>
-  <si>
-    <t>20135433</t>
-  </si>
-  <si>
-    <t>TEREA SUN PEARL 20'S</t>
-  </si>
-  <si>
-    <t>20135434</t>
-  </si>
-  <si>
-    <t>TEREA OASIS PRL 20'S</t>
-  </si>
-  <si>
-    <t>20132739</t>
-  </si>
-  <si>
-    <t>TEREA GOLDEN ED 20'S</t>
-  </si>
-  <si>
-    <t>20134380</t>
-  </si>
-  <si>
-    <t>TEREA MULINT ED 20'S</t>
-  </si>
-  <si>
-    <t>20139348</t>
-  </si>
-  <si>
-    <t>TEREA BERMIN PRL 20S</t>
-  </si>
-  <si>
-    <t>20140875</t>
-  </si>
-  <si>
-    <t>TEREA RIVIERA PR 20S</t>
-  </si>
-  <si>
-    <t>20128089</t>
-  </si>
-  <si>
-    <t>TEREA YUGEN 20'S</t>
-  </si>
-  <si>
-    <t>20134381</t>
-  </si>
-  <si>
-    <t>TEREA AUBURN ED 20'S</t>
-  </si>
-  <si>
-    <t>20134382</t>
-  </si>
-  <si>
-    <t>TEREA BERRNE ED 20'S</t>
-  </si>
-  <si>
-    <t>20138206</t>
-  </si>
-  <si>
-    <t>TEREA BLACK RUBY20S</t>
-  </si>
-  <si>
-    <t>20139349</t>
-  </si>
-  <si>
-    <t>TEREA PERINT PRL 20S</t>
-  </si>
-  <si>
-    <t>20140878</t>
-  </si>
-  <si>
-    <t>BLENDS GOLD 20'S</t>
-  </si>
-  <si>
-    <t>20140879</t>
-  </si>
-  <si>
-    <t>BLENDS TROPICAL 20'S</t>
-  </si>
-  <si>
-    <t>20136323</t>
-  </si>
-  <si>
-    <t>BLENDS WARM.EDT 20'S</t>
-  </si>
-  <si>
-    <t>20136324</t>
-  </si>
-  <si>
-    <t>BLENDS PRPL.EDT 20'S</t>
-  </si>
-  <si>
-    <t>20136325</t>
-  </si>
-  <si>
-    <t>BLENDS BLSM.EDT 20'S</t>
-  </si>
-  <si>
-    <t>20136326</t>
-  </si>
-  <si>
-    <t>BLENDS SMMR.EDT 20'S</t>
-  </si>
-  <si>
-    <t>20138346</t>
-  </si>
-  <si>
-    <t>BLENDS RICH.EDT 20'S</t>
-  </si>
-  <si>
-    <t>20135189</t>
-  </si>
-  <si>
-    <t>VEEV ONE1000 STRWBRY</t>
-  </si>
-  <si>
-    <t>20135190</t>
-  </si>
-  <si>
-    <t>VEEV ONE1000 RED.MLN</t>
-  </si>
-  <si>
-    <t>20135191</t>
-  </si>
-  <si>
-    <t>VEEV ONE1000 MANGO</t>
-  </si>
-  <si>
-    <t>20137965</t>
-  </si>
-  <si>
-    <t>VEEV ONE1000 S.APPLE</t>
-  </si>
-  <si>
-    <t>20137967</t>
-  </si>
-  <si>
-    <t>VEEV ONE1000 BLUEBRY</t>
-  </si>
-  <si>
-    <t>20137968</t>
-  </si>
-  <si>
-    <t>VEEV ONE1000 GRAPE</t>
-  </si>
-  <si>
-    <t>20138765</t>
-  </si>
-  <si>
-    <t>VEEV ONE1000 STRW CL</t>
-  </si>
-  <si>
-    <t>20139616</t>
-  </si>
-  <si>
-    <t>VEEV ONE 1000 CHERRY</t>
-  </si>
-  <si>
-    <t>20139759</t>
-  </si>
-  <si>
-    <t>VEEV ONE 500 MANGO</t>
-  </si>
-  <si>
-    <t>20139760</t>
-  </si>
-  <si>
-    <t>VEEV ONE 500 RED MLN</t>
-  </si>
-  <si>
-    <t>20139761</t>
-  </si>
-  <si>
-    <t>VEEV ONE 500 STRW CL</t>
-  </si>
-  <si>
-    <t>20140265</t>
-  </si>
-  <si>
-    <t>VEEV ONE 1000 LT.TEA</t>
-  </si>
-  <si>
-    <t>20140266</t>
-  </si>
-  <si>
-    <t>VEEV ONE 500 LM.TEA</t>
-  </si>
-  <si>
-    <t>20140267</t>
-  </si>
-  <si>
-    <t>VEEV ONE 1000 LM.TEA</t>
-  </si>
-  <si>
-    <t>20137962</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULTRA MNGO</t>
-  </si>
-  <si>
-    <t>20137963</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULTRA GRPE</t>
-  </si>
-  <si>
-    <t>20137964</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULT RED.MLN</t>
-  </si>
-  <si>
-    <t>20138345</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULT SOURPLE</t>
-  </si>
-  <si>
-    <t>20138659</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULTRA STRWB</t>
-  </si>
-  <si>
-    <t>20138763</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULTR STR CL</t>
-  </si>
-  <si>
-    <t>20138764</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULTR PDN CF</t>
-  </si>
-  <si>
-    <t>20139526</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULTRA RSPBR</t>
-  </si>
-  <si>
-    <t>20140252</t>
-  </si>
-  <si>
-    <t>VEEV NOW ULTRA LMN.T</t>
-  </si>
-  <si>
-    <t>20135188</t>
-  </si>
-  <si>
-    <t>VEEV DVCE KIT SP.GRY</t>
-  </si>
-  <si>
-    <t>20135716</t>
-  </si>
-  <si>
-    <t>CAMEL SENSO GOLD 20S</t>
-  </si>
-  <si>
-    <t>20117925</t>
-  </si>
-  <si>
-    <t>CAMEL MILD BLUE 16'S</t>
-  </si>
-  <si>
-    <t>20130840</t>
-  </si>
-  <si>
-    <t>CAMEL WHITE NEW 20'S</t>
-  </si>
-  <si>
-    <t>20046794</t>
-  </si>
-  <si>
-    <t>CAMEL WHITE 20'S</t>
-  </si>
-  <si>
-    <t>20115758</t>
-  </si>
-  <si>
-    <t>CAMEL YLOW NEW 20'S</t>
-  </si>
-  <si>
-    <t>20096502</t>
-  </si>
-  <si>
-    <t>CAMEL YELLOW 20'S</t>
-  </si>
-  <si>
-    <t>20060300</t>
-  </si>
-  <si>
-    <t>CAMEL ACT.P MINT 20S</t>
-  </si>
-  <si>
-    <t>20128470</t>
-  </si>
-  <si>
-    <t>CAMEL OPT PURPLE 16S</t>
-  </si>
-  <si>
-    <t>20106190</t>
-  </si>
-  <si>
-    <t>CAMEL OPT PURPLE 12S</t>
-  </si>
-  <si>
-    <t>20114049</t>
-  </si>
-  <si>
-    <t>CAMEL OPT YELLOW 12S</t>
-  </si>
-  <si>
-    <t>20133512</t>
-  </si>
-  <si>
-    <t>CAMEL ACTV MNTHL 20S</t>
-  </si>
-  <si>
-    <t>20138432</t>
-  </si>
-  <si>
-    <t>CAMEL ICE RED 16S</t>
-  </si>
-  <si>
-    <t>20137297</t>
-  </si>
-  <si>
-    <t>CAMEL  KRETEK12'S</t>
-  </si>
-  <si>
-    <t>20130571</t>
-  </si>
-  <si>
-    <t>WIN FILTER CLICK20'S</t>
-  </si>
-  <si>
-    <t>20119629</t>
-  </si>
-  <si>
-    <t>WIN FILTER 20'S</t>
-  </si>
-  <si>
-    <t>20136050</t>
-  </si>
-  <si>
-    <t>WIN KRETEK BERRY 12S</t>
-  </si>
-  <si>
-    <t>20136051</t>
-  </si>
-  <si>
-    <t>WIN KRT NANGKA 12'S</t>
-  </si>
-  <si>
-    <t>20135739</t>
-  </si>
-  <si>
-    <t>CLIMAX ICY BKS 20'S</t>
-  </si>
-  <si>
-    <t>20135737</t>
-  </si>
-  <si>
-    <t>CLIMAX MANGO BKS20'S</t>
-  </si>
-  <si>
-    <t>20135736</t>
-  </si>
-  <si>
-    <t>CLIMAX MIX BKS 20'S</t>
-  </si>
-  <si>
-    <t>20112661</t>
-  </si>
-  <si>
-    <t>ESSE PUNCH POP 16'S</t>
-  </si>
-  <si>
-    <t>20070447</t>
-  </si>
-  <si>
-    <t>ESSE BERRY POP 16'S</t>
-  </si>
-  <si>
-    <t>20114735</t>
-  </si>
-  <si>
-    <t>ESSE BERRY POP 12'S</t>
-  </si>
-  <si>
-    <t>20093678</t>
-  </si>
-  <si>
-    <t>ESSE BLUE CHNGE 20'S</t>
-  </si>
-  <si>
-    <t>20010960</t>
-  </si>
-  <si>
-    <t>ESSE FILTER BLUE 20S</t>
-  </si>
-  <si>
-    <t>20138128</t>
-  </si>
-  <si>
-    <t>JUARA  APEL 12S</t>
-  </si>
-  <si>
-    <t>20130786</t>
-  </si>
-  <si>
-    <t>JUARA  MNGGA 12S</t>
-  </si>
-  <si>
-    <t>20095302</t>
-  </si>
-  <si>
-    <t>JUARA  TEH 12S</t>
-  </si>
-  <si>
-    <t>20139245</t>
-  </si>
-  <si>
-    <t>JUARA KRT  BERRY 12S</t>
-  </si>
-  <si>
-    <t>20130785</t>
-  </si>
-  <si>
-    <t>JUARA  JAMBU12S</t>
-  </si>
-  <si>
-    <t>20108797</t>
-  </si>
-  <si>
-    <t>WIN BOLD 20'S</t>
-  </si>
-  <si>
-    <t>20085760</t>
-  </si>
-  <si>
-    <t>ESSE CHANGE GRP 20'S</t>
-  </si>
-  <si>
-    <t>20112781</t>
-  </si>
-  <si>
-    <t>ESSE CHNG JUICY 16'S</t>
-  </si>
-  <si>
-    <t>20094203</t>
-  </si>
-  <si>
-    <t>ESSE CHNG JUICY 20'S</t>
-  </si>
-  <si>
-    <t>20112785</t>
-  </si>
-  <si>
-    <t>ESSE CHNG APLMNT 16S</t>
-  </si>
-  <si>
-    <t>20055795</t>
-  </si>
-  <si>
-    <t>ESSE CHNG APLMNT 20S</t>
-  </si>
-  <si>
-    <t>20100795</t>
-  </si>
-  <si>
-    <t>ESSE CHNG DOUB 20'S</t>
-  </si>
-  <si>
-    <t>20126307</t>
-  </si>
-  <si>
-    <t>ESSE DOUBLE POP 16'S</t>
-  </si>
-  <si>
-    <t>20138581</t>
-  </si>
-  <si>
-    <t>ESSE/C CGR CACAO 20S</t>
-  </si>
-  <si>
-    <t>20138582</t>
-  </si>
-  <si>
-    <t>ESSE/C CGR PRPLE 20S</t>
   </si>
   <si>
     <t>20038143</t>
@@ -1708,7 +1702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F207"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2912,7 +2906,7 @@
         <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -2932,7 +2926,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -2952,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -2972,7 +2966,7 @@
         <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2992,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -3012,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -3032,7 +3026,7 @@
         <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -3052,7 +3046,7 @@
         <v>17</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>89</v>
@@ -3072,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -3092,7 +3086,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -3312,7 +3306,7 @@
         <v>23</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3332,7 +3326,7 @@
         <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3352,7 +3346,7 @@
         <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -3372,7 +3366,7 @@
         <v>23</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3392,7 +3386,7 @@
         <v>23</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -3412,7 +3406,7 @@
         <v>23</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -3432,7 +3426,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3452,7 +3446,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -3472,7 +3466,7 @@
         <v>23</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -3492,7 +3486,7 @@
         <v>23</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -3529,10 +3523,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -3540,10 +3534,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -3552,7 +3546,7 @@
         <v>26</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -3560,10 +3554,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
@@ -3572,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3580,10 +3574,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -3592,7 +3586,7 @@
         <v>26</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3600,10 +3594,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -3612,7 +3606,7 @@
         <v>26</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3620,10 +3614,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -3632,7 +3626,7 @@
         <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3640,10 +3634,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -3652,18 +3646,18 @@
         <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -3672,18 +3666,18 @@
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -3692,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3700,10 +3694,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
@@ -3712,7 +3706,7 @@
         <v>26</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3720,19 +3714,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3740,10 +3734,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -3752,7 +3746,7 @@
         <v>29</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3760,10 +3754,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
@@ -3772,7 +3766,7 @@
         <v>29</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3780,10 +3774,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
@@ -3792,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3800,10 +3794,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -3812,7 +3806,7 @@
         <v>29</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3820,10 +3814,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -3832,18 +3826,18 @@
         <v>29</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
@@ -3852,27 +3846,27 @@
         <v>29</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3880,10 +3874,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -3900,10 +3894,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
@@ -3920,10 +3914,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
@@ -3940,10 +3934,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
@@ -3960,10 +3954,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3972,7 +3966,7 @@
         <v>32</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
@@ -3980,10 +3974,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
@@ -4000,10 +3994,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -4015,15 +4009,15 @@
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -4035,15 +4029,15 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
@@ -4052,7 +4046,7 @@
         <v>32</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -4060,10 +4054,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
@@ -4080,10 +4074,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
@@ -4100,10 +4094,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
@@ -4115,15 +4109,15 @@
         <v>11</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -4132,18 +4126,18 @@
         <v>32</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
@@ -4160,10 +4154,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -4180,10 +4174,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -4192,7 +4186,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>5</v>
@@ -4200,10 +4194,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -4220,10 +4214,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -4240,10 +4234,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
@@ -4260,10 +4254,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
@@ -4275,15 +4269,15 @@
         <v>17</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
@@ -4292,18 +4286,18 @@
         <v>32</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
@@ -4320,10 +4314,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
@@ -4340,10 +4334,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -4355,15 +4349,15 @@
         <v>20</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -4380,10 +4374,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
@@ -4400,10 +4394,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
@@ -4415,15 +4409,15 @@
         <v>20</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
@@ -4440,10 +4434,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
@@ -4460,10 +4454,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
@@ -4480,10 +4474,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
@@ -4500,10 +4494,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -4520,10 +4514,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
@@ -4540,10 +4534,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
@@ -4560,10 +4554,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
@@ -4572,18 +4566,18 @@
         <v>32</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
@@ -4600,10 +4594,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
@@ -4620,10 +4614,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
@@ -4640,10 +4634,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
@@ -4655,15 +4649,15 @@
         <v>23</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
@@ -4680,10 +4674,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
@@ -4700,10 +4694,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
@@ -4720,10 +4714,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
@@ -4740,10 +4734,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
@@ -4752,7 +4746,7 @@
         <v>32</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4760,19 +4754,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4780,10 +4774,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
@@ -4792,7 +4786,7 @@
         <v>35</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -4800,10 +4794,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
@@ -4812,7 +4806,7 @@
         <v>35</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -4820,10 +4814,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
@@ -4832,7 +4826,7 @@
         <v>35</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
@@ -4840,10 +4834,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
@@ -4852,7 +4846,7 @@
         <v>35</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>5</v>
@@ -4860,10 +4854,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
@@ -4872,7 +4866,7 @@
         <v>35</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
@@ -4880,10 +4874,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
@@ -4892,7 +4886,7 @@
         <v>35</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -4900,10 +4894,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
@@ -4912,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -4920,10 +4914,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
@@ -4932,7 +4926,7 @@
         <v>35</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4940,10 +4934,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
@@ -4952,7 +4946,7 @@
         <v>35</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
@@ -4960,10 +4954,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
@@ -4972,7 +4966,7 @@
         <v>35</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -4980,10 +4974,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
@@ -4992,18 +4986,18 @@
         <v>35</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
@@ -5012,27 +5006,27 @@
         <v>35</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>5</v>
@@ -5040,10 +5034,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
@@ -5052,7 +5046,7 @@
         <v>38</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>5</v>
@@ -5060,10 +5054,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
@@ -5072,7 +5066,7 @@
         <v>38</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
@@ -5080,10 +5074,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
@@ -5092,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5100,10 +5094,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
@@ -5112,7 +5106,7 @@
         <v>38</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -5120,10 +5114,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
@@ -5132,7 +5126,7 @@
         <v>38</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5140,10 +5134,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
@@ -5152,7 +5146,7 @@
         <v>38</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5160,10 +5154,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>3</v>
@@ -5172,7 +5166,7 @@
         <v>38</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5180,10 +5174,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
@@ -5192,7 +5186,7 @@
         <v>38</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5200,10 +5194,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
@@ -5212,7 +5206,7 @@
         <v>38</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5220,10 +5214,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
@@ -5232,7 +5226,7 @@
         <v>38</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>5</v>
@@ -5240,10 +5234,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
@@ -5252,7 +5246,7 @@
         <v>38</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -5260,19 +5254,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
@@ -5280,10 +5274,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
@@ -5292,7 +5286,7 @@
         <v>41</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5300,10 +5294,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
@@ -5312,7 +5306,7 @@
         <v>41</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5320,10 +5314,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
@@ -5332,7 +5326,7 @@
         <v>41</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5340,10 +5334,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
@@ -5352,7 +5346,7 @@
         <v>41</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -5360,10 +5354,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
@@ -5372,7 +5366,7 @@
         <v>41</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -5380,10 +5374,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
@@ -5392,7 +5386,7 @@
         <v>41</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
@@ -5400,10 +5394,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
@@ -5412,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>5</v>
@@ -5420,10 +5414,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
@@ -5432,7 +5426,7 @@
         <v>41</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
@@ -5440,10 +5434,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
@@ -5452,7 +5446,7 @@
         <v>41</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
@@ -5460,10 +5454,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>3</v>
@@ -5472,7 +5466,7 @@
         <v>41</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>5</v>
@@ -5480,10 +5474,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>3</v>
@@ -5492,7 +5486,7 @@
         <v>41</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
@@ -5500,10 +5494,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
@@ -5512,7 +5506,7 @@
         <v>41</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>5</v>
@@ -5520,10 +5514,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>3</v>
@@ -5532,18 +5526,18 @@
         <v>41</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>3</v>
@@ -5552,7 +5546,7 @@
         <v>41</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>89</v>
@@ -5569,13 +5563,13 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5592,7 +5586,7 @@
         <v>44</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>72</v>
@@ -5612,7 +5606,7 @@
         <v>44</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>72</v>
@@ -5632,7 +5626,7 @@
         <v>44</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>72</v>
@@ -5652,7 +5646,7 @@
         <v>44</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>72</v>
@@ -5672,7 +5666,7 @@
         <v>44</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>72</v>
@@ -5692,7 +5686,7 @@
         <v>44</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>72</v>
@@ -5709,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>72</v>
@@ -5729,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>72</v>
@@ -5749,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>72</v>
@@ -5769,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>72</v>
@@ -5789,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>72</v>
@@ -5809,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>72</v>
@@ -5829,13 +5823,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5849,32 +5843,12 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>200</v>
+        <v>402</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F208" s="1" t="s">
         <v>72</v>
       </c>
     </row>
